--- a/biology/Zoologie/Fluda/Fluda.xlsx
+++ b/biology/Zoologie/Fluda/Fluda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fluda est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fluda est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud, à la Trinité et au Panama[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud, à la Trinité et au Panama.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les araignées de ce genre sont myrmécomorphes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les araignées de ce genre sont myrmécomorphes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 16/04/2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 16/04/2023) :
 Fluda angulosa Simon, 1900
 Fluda araguae Galiano, 1971
 Fluda dauca Perger &amp; Rubio, 2023
@@ -616,10 +634,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Peckham et Peckham en 1892 dans les Attidae.
-Keyserlingella[3] a été placé en synonymie par Galiano en 1971[4].
+Keyserlingella a été placé en synonymie par Galiano en 1971.
 </t>
         </is>
       </c>
@@ -648,7 +668,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Peckham &amp; Peckham, 1892 : « Ant-like spiders of the family Attidae. » Occasional Papers of the Natural History Society of Wisconsin, vol. 2, no 1, p. 1-84 (texte intégral).</t>
         </is>
